--- a/biology/Zoologie/Bailey-Matthews_National_Shell_Museum/Bailey-Matthews_National_Shell_Museum.xlsx
+++ b/biology/Zoologie/Bailey-Matthews_National_Shell_Museum/Bailey-Matthews_National_Shell_Museum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bailey-Matthews National Shell Museum  est un musée des États-Unis consacré à tous les aspects des coquillages, de la conchyliologie et de la malacologie, y compris leurs aspects paléontologiques et archéologiques/anthropologiques. Il est situé au sud-ouest de la Floride, sur l'île de Sanibel, dans le golfe du Mexique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bailey-Matthews National Shell Museum  est un musée des États-Unis consacré à tous les aspects des coquillages, de la conchyliologie et de la malacologie, y compris leurs aspects paléontologiques et archéologiques/anthropologiques. Il est situé au sud-ouest de la Floride, sur l'île de Sanibel, dans le golfe du Mexique.
 Le musée a ouvert ses portes au public en 1995. Il sert de centre d'information et de référence pour les scientifiques nationaux et internationaux, les étudiants et les passionnés de coquillages, en particulier ceux qui s'intéressent aux mollusques marins, terrestres et d'eau douce du golfe du Mexique et de la Floride. Le musée, qui appartient à la Shell Museum and Educational Foundation, Inc., a reçu sa première accréditation de l'American Alliance of Museums en mars 2010.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Sources des coquillages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les expositions du musée comprennent des coquillages du monde entier. La plupart proviennent cependant de Floride, dont un nombre important des îles de Sanibel et de Captiva. L'île de Sanibel est en effet l'un des meilleurs sites de collecte de coquillages au monde (comparable à Jeffreys Bay en Afrique du Sud et à l'archipel de Sulu aux Philippines)[2]. Le musée possède également une collection de cauris et de cônes de l'océan Pacifique offerts par l'acteur Raymond Burr, qui possédait une île aux Fidji, et qui a dirigé les efforts de collecte de fonds pour construire le musée. À l'extérieur du musée se trouve un jardin commémoratif dédié à Raymond Burr, et à l'intérieur une petite exposition sur lui en tant qu'acteur de cinéma, philanthrope et collectionneur de coquillages[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les expositions du musée comprennent des coquillages du monde entier. La plupart proviennent cependant de Floride, dont un nombre important des îles de Sanibel et de Captiva. L'île de Sanibel est en effet l'un des meilleurs sites de collecte de coquillages au monde (comparable à Jeffreys Bay en Afrique du Sud et à l'archipel de Sulu aux Philippines). Le musée possède également une collection de cauris et de cônes de l'océan Pacifique offerts par l'acteur Raymond Burr, qui possédait une île aux Fidji, et qui a dirigé les efforts de collecte de fonds pour construire le musée. À l'extérieur du musée se trouve un jardin commémoratif dédié à Raymond Burr, et à l'intérieur une petite exposition sur lui en tant qu'acteur de cinéma, philanthrope et collectionneur de coquillages.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Installations et programmes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée a établi des liens étroits avec de nombreuses organisations des secteurs public et privé, notamment l'Organisation des Nations Unies pour l'alimentation et l'agriculture, la Smithsonian Institution, l'American Malacological Society, le Conchologists of America, le Musée de Zoologie de l'Université de São Paulo au Brésil, le Musée d'histoire naturelle de Floride, le réseau de bibliothèques de la Southwest Florida, la bibliothèque publique de Sanibel, l'école de Sanibel, la chambre de commerce de Sanibel-Captiva, le bureau des visiteurs et des congrès du comté de Lee et son conseil du tourisme et du développement, ainsi que des clubs de coquillages de toute la Floride.
-Le musée organise des programmes pour éduquer le public, comme des promenades guidées sur la plage avec des naturalistes du musée qui identifient les coquillages et enseignent la biologie des mollusques[4].
+Le musée organise des programmes pour éduquer le public, comme des promenades guidées sur la plage avec des naturalistes du musée qui identifient les coquillages et enseignent la biologie des mollusques.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bailey-Matthews National Shell Museum a commencé avec un don de terrain en 1990 des frères John, Francis et Sam Bailey (à la mémoire de leurs parents Frank P. Bailey et Annie Mead Matthews). Le malacologue R. Tucker Abbott en était le directeur fondateur. Son bâtiment a été conçu par l'architecte George "Tutts" Tuttle Jr., de l'île de Captiva.
 En 1993, le musée a ouvert son bureau provisoire et obtenu un prêt bancaire pour compléter une subvention à la construction du State of Florida Cultural Facilities Program. L'inauguration a eu lieu le 18 novembre 1995. En février 1996, le malacologiste José H. Leal (en) a été embauché comme directeur. En 1997, le musée est devenu l'éditeur, avec Leal comme rédacteur en chef, de The Nautilus (en), la deuxième plus ancienne revue scientifique de malacologie en langue anglaise au monde.[réf. nécessaire]
